--- a/03_Documentation/KennethMunk--2021-10-14--ScreenResolutionReferenceTable.xlsx
+++ b/03_Documentation/KennethMunk--2021-10-14--ScreenResolutionReferenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\GitHub\CSC131_Project-Autism-Target-Learning\CSC131_Project-Autism-Target-Learning\03_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFF053-E912-4896-A6F3-56516CF3B729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E59C496-0E9E-47FF-94D2-02B2FD2FA43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13620" yWindow="-11355" windowWidth="13740" windowHeight="23640" xr2:uid="{167B6ABA-BF2A-4608-9D11-EE435C9EE245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{167B6ABA-BF2A-4608-9D11-EE435C9EE245}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -482,6 +482,18 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S7+</t>
+  </si>
+  <si>
+    <t>12.4"</t>
+  </si>
+  <si>
+    <t>11"</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S7</t>
   </si>
 </sst>
 </file>
@@ -543,23 +555,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -580,6 +576,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -605,27 +607,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16EF23E9-89F4-49D1-9CA9-42F01B6282D0}" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:G89" xr:uid="{16EF23E9-89F4-49D1-9CA9-42F01B6282D0}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Tablet"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16EF23E9-89F4-49D1-9CA9-42F01B6282D0}" name="Table1" displayName="Table1" ref="A1:G91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G91" xr:uid="{16EF23E9-89F4-49D1-9CA9-42F01B6282D0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
     <sortCondition descending="1" ref="F1:F89"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ABA60350-E0B7-432F-AB02-35EE1150DD3A}" name="Manufacturer" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{78942AFC-B239-4281-91C8-EB24608EA5A8}" name="Model" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{99163A3F-163E-4845-B0A8-8B984107EE95}" name="Screen Size" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{7B4A6813-F97A-48E0-A581-1C25F857C842}" name="Length" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{9B046129-E059-4007-804D-E1EDC85B7EEA}" name="Width" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F27F4485-AF3F-4355-BDB0-3B50A26FE022}" name="Ratio" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{ABA60350-E0B7-432F-AB02-35EE1150DD3A}" name="Manufacturer" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{78942AFC-B239-4281-91C8-EB24608EA5A8}" name="Model" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{99163A3F-163E-4845-B0A8-8B984107EE95}" name="Screen Size" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7B4A6813-F97A-48E0-A581-1C25F857C842}" name="Length" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9B046129-E059-4007-804D-E1EDC85B7EEA}" name="Width" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F27F4485-AF3F-4355-BDB0-3B50A26FE022}" name="Ratio" dataDxfId="1">
       <calculatedColumnFormula>D2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9D08CCAC-966E-498C-9A65-A155F9C2E167}" name="Type" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9D08CCAC-966E-498C-9A65-A155F9C2E167}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41523345-CB6B-43FB-A041-CBD9D6E6C529}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -983,14 +979,14 @@
         <v>1080</v>
       </c>
       <c r="F2" s="4">
-        <f>D2/E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2/E2</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1007,14 +1003,14 @@
         <v>1080</v>
       </c>
       <c r="F3" s="4">
-        <f>D3/E3</f>
+        <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1031,14 +1027,14 @@
         <v>1440</v>
       </c>
       <c r="F4" s="4">
-        <f>D4/E4</f>
+        <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1055,14 +1051,14 @@
         <v>1440</v>
       </c>
       <c r="F5" s="4">
-        <f>D5/E5</f>
+        <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>87</v>
       </c>
@@ -1079,14 +1075,14 @@
         <v>1080</v>
       </c>
       <c r="F6" s="4">
-        <f>D6/E6</f>
+        <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
@@ -1103,14 +1099,14 @@
         <v>1080</v>
       </c>
       <c r="F7" s="4">
-        <f>D7/E7</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -1127,14 +1123,14 @@
         <v>1440</v>
       </c>
       <c r="F8" s="4">
-        <f>D8/E8</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -1151,14 +1147,14 @@
         <v>1440</v>
       </c>
       <c r="F9" s="4">
-        <f>D9/E9</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -1175,14 +1171,14 @@
         <v>1440</v>
       </c>
       <c r="F10" s="4">
-        <f>D10/E10</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
@@ -1199,14 +1195,14 @@
         <v>1440</v>
       </c>
       <c r="F11" s="4">
-        <f>D11/E11</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
@@ -1223,14 +1219,14 @@
         <v>400</v>
       </c>
       <c r="F12" s="4">
-        <f>D12/E12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1247,14 +1243,14 @@
         <v>400</v>
       </c>
       <c r="F13" s="4">
-        <f>D13/E13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1271,14 +1267,14 @@
         <v>750</v>
       </c>
       <c r="F14" s="4">
-        <f>D14/E14</f>
+        <f t="shared" si="0"/>
         <v>1.7786666666666666</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1295,14 +1291,14 @@
         <v>750</v>
       </c>
       <c r="F15" s="4">
-        <f>D15/E15</f>
+        <f t="shared" si="0"/>
         <v>1.7786666666666666</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1319,14 +1315,14 @@
         <v>750</v>
       </c>
       <c r="F16" s="4">
-        <f>D16/E16</f>
+        <f t="shared" si="0"/>
         <v>1.7786666666666666</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
@@ -1343,14 +1339,14 @@
         <v>540</v>
       </c>
       <c r="F17" s="4">
-        <f>D17/E17</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -1367,14 +1363,14 @@
         <v>540</v>
       </c>
       <c r="F18" s="4">
-        <f>D18/E18</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
@@ -1391,14 +1387,14 @@
         <v>720</v>
       </c>
       <c r="F19" s="4">
-        <f>D19/E19</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>91</v>
       </c>
@@ -1415,14 +1411,14 @@
         <v>1440</v>
       </c>
       <c r="F20" s="4">
-        <f>D20/E20</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1439,14 +1435,14 @@
         <v>1080</v>
       </c>
       <c r="F21" s="4">
-        <f>D21/E21</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1463,14 +1459,14 @@
         <v>1080</v>
       </c>
       <c r="F22" s="4">
-        <f>D22/E22</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1487,14 +1483,14 @@
         <v>1080</v>
       </c>
       <c r="F23" s="4">
-        <f>D23/E23</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1511,14 +1507,14 @@
         <v>540</v>
       </c>
       <c r="F24" s="4">
-        <f>D24/E24</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1535,14 +1531,14 @@
         <v>540</v>
       </c>
       <c r="F25" s="4">
-        <f>D25/E25</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1559,14 +1555,14 @@
         <v>540</v>
       </c>
       <c r="F26" s="4">
-        <f>D26/E26</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -1583,14 +1579,14 @@
         <v>1080</v>
       </c>
       <c r="F27" s="4">
-        <f>D27/E27</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -1607,14 +1603,14 @@
         <v>1440</v>
       </c>
       <c r="F28" s="4">
-        <f>D28/E28</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -1631,14 +1627,14 @@
         <v>1440</v>
       </c>
       <c r="F29" s="4">
-        <f>D29/E29</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -1655,14 +1651,14 @@
         <v>720</v>
       </c>
       <c r="F30" s="4">
-        <f>D30/E30</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -1679,14 +1675,14 @@
         <v>1080</v>
       </c>
       <c r="F31" s="4">
-        <f>D31/E31</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
@@ -1703,14 +1699,14 @@
         <v>1080</v>
       </c>
       <c r="F32" s="4">
-        <f>D32/E32</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -1727,14 +1723,14 @@
         <v>1440</v>
       </c>
       <c r="F33" s="4">
-        <f>D33/E33</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
@@ -1751,14 +1747,14 @@
         <v>1440</v>
       </c>
       <c r="F34" s="4">
-        <f>D34/E34</f>
+        <f t="shared" ref="F34:F65" si="1">D34/E34</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -1775,14 +1771,14 @@
         <v>1440</v>
       </c>
       <c r="F35" s="4">
-        <f>D35/E35</f>
+        <f t="shared" si="1"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -1799,14 +1795,14 @@
         <v>1440</v>
       </c>
       <c r="F36" s="4">
-        <f>D36/E36</f>
+        <f t="shared" si="1"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>91</v>
       </c>
@@ -1823,14 +1819,14 @@
         <v>1440</v>
       </c>
       <c r="F37" s="4">
-        <f>D37/E37</f>
+        <f t="shared" si="1"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1847,14 +1843,14 @@
         <v>640</v>
       </c>
       <c r="F38" s="4">
-        <f>D38/E38</f>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1871,14 +1867,14 @@
         <v>640</v>
       </c>
       <c r="F39" s="4">
-        <f>D39/E39</f>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1895,14 +1891,14 @@
         <v>640</v>
       </c>
       <c r="F40" s="4">
-        <f>D40/E40</f>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>640</v>
       </c>
       <c r="F41" s="4">
-        <f>D41/E41</f>
+        <f t="shared" si="1"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -1943,7 +1939,7 @@
         <v>600</v>
       </c>
       <c r="F42" s="4">
-        <f>D42/E42</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -1967,7 +1963,7 @@
         <v>600</v>
       </c>
       <c r="F43" s="4">
-        <f>D43/E43</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -1991,7 +1987,7 @@
         <v>600</v>
       </c>
       <c r="F44" s="4">
-        <f>D44/E44</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2015,7 +2011,7 @@
         <v>600</v>
       </c>
       <c r="F45" s="4">
-        <f>D45/E45</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2039,7 +2035,7 @@
         <v>600</v>
       </c>
       <c r="F46" s="4">
-        <f>D46/E46</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2063,14 +2059,14 @@
         <v>600</v>
       </c>
       <c r="F47" s="4">
-        <f>D47/E47</f>
+        <f t="shared" si="1"/>
         <v>1.7066666666666668</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>480</v>
       </c>
       <c r="F48" s="4">
-        <f>D48/E48</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2111,14 +2107,14 @@
         <v>768</v>
       </c>
       <c r="F49" s="4">
-        <f>D49/E49</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -2135,14 +2131,14 @@
         <v>480</v>
       </c>
       <c r="F50" s="4">
-        <f>D50/E50</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
@@ -2159,14 +2155,14 @@
         <v>480</v>
       </c>
       <c r="F51" s="4">
-        <f>D51/E51</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -2183,14 +2179,14 @@
         <v>480</v>
       </c>
       <c r="F52" s="4">
-        <f>D52/E52</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>91</v>
       </c>
@@ -2207,7 +2203,7 @@
         <v>480</v>
       </c>
       <c r="F53" s="4">
-        <f>D53/E53</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -2231,14 +2227,14 @@
         <v>480</v>
       </c>
       <c r="F54" s="4">
-        <f>D54/E54</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2255,14 +2251,14 @@
         <v>480</v>
       </c>
       <c r="F55" s="4">
-        <f>D55/E55</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>91</v>
       </c>
@@ -2279,14 +2275,14 @@
         <v>480</v>
       </c>
       <c r="F56" s="4">
-        <f>D56/E56</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -2303,14 +2299,14 @@
         <v>480</v>
       </c>
       <c r="F57" s="4">
-        <f>D57/E57</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -2327,14 +2323,14 @@
         <v>480</v>
       </c>
       <c r="F58" s="4">
-        <f>D58/E58</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>91</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>800</v>
       </c>
       <c r="F59" s="4">
-        <f>D59/E59</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -2375,7 +2371,7 @@
         <v>800</v>
       </c>
       <c r="F60" s="4">
-        <f>D60/E60</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -2399,7 +2395,7 @@
         <v>800</v>
       </c>
       <c r="F61" s="4">
-        <f>D61/E61</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -2423,7 +2419,7 @@
         <v>800</v>
       </c>
       <c r="F62" s="4">
-        <f>D62/E62</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -2447,7 +2443,7 @@
         <v>800</v>
       </c>
       <c r="F63" s="4">
-        <f>D63/E63</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -2471,7 +2467,7 @@
         <v>800</v>
       </c>
       <c r="F64" s="4">
-        <f>D64/E64</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -2495,7 +2491,7 @@
         <v>800</v>
       </c>
       <c r="F65" s="4">
-        <f>D65/E65</f>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -2519,7 +2515,7 @@
         <v>800</v>
       </c>
       <c r="F66" s="4">
-        <f>D66/E66</f>
+        <f t="shared" ref="F66:F97" si="2">D66/E66</f>
         <v>1.6</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -2543,7 +2539,7 @@
         <v>800</v>
       </c>
       <c r="F67" s="4">
-        <f>D67/E67</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -2567,7 +2563,7 @@
         <v>800</v>
       </c>
       <c r="F68" s="4">
-        <f>D68/E68</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -2591,7 +2587,7 @@
         <v>800</v>
       </c>
       <c r="F69" s="4">
-        <f>D69/E69</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -2615,14 +2611,14 @@
         <v>800</v>
       </c>
       <c r="F70" s="4">
-        <f>D70/E70</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>91</v>
       </c>
@@ -2639,14 +2635,14 @@
         <v>320</v>
       </c>
       <c r="F71" s="4">
-        <f>D71/E71</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -2663,14 +2659,14 @@
         <v>320</v>
       </c>
       <c r="F72" s="4">
-        <f>D72/E72</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>640</v>
       </c>
       <c r="F73" s="4">
-        <f>D73/E73</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -2711,7 +2707,7 @@
         <v>2048</v>
       </c>
       <c r="F74" s="4">
-        <f>D74/E74</f>
+        <f t="shared" si="2"/>
         <v>1.333984375</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -2735,14 +2731,14 @@
         <v>768</v>
       </c>
       <c r="F75" s="4">
-        <f>D75/E75</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>240</v>
       </c>
       <c r="F76" s="4">
-        <f>D76/E76</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -2783,7 +2779,7 @@
         <v>768</v>
       </c>
       <c r="F77" s="4">
-        <f>D77/E77</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -2807,7 +2803,7 @@
         <v>768</v>
       </c>
       <c r="F78" s="4">
-        <f>D78/E78</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G78" s="2" t="s">
@@ -2831,7 +2827,7 @@
         <v>1536</v>
       </c>
       <c r="F79" s="4">
-        <f>D79/E79</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G79" s="2" t="s">
@@ -2855,7 +2851,7 @@
         <v>1536</v>
       </c>
       <c r="F80" s="4">
-        <f>D80/E80</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G80" s="2" t="s">
@@ -2879,7 +2875,7 @@
         <v>1536</v>
       </c>
       <c r="F81" s="4">
-        <f>D81/E81</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G81" s="2" t="s">
@@ -2903,7 +2899,7 @@
         <v>768</v>
       </c>
       <c r="F82" s="4">
-        <f>D82/E82</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -2927,7 +2923,7 @@
         <v>1536</v>
       </c>
       <c r="F83" s="4">
-        <f>D83/E83</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G83" s="2" t="s">
@@ -2951,7 +2947,7 @@
         <v>1536</v>
       </c>
       <c r="F84" s="4">
-        <f>D84/E84</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G84" s="2" t="s">
@@ -2975,7 +2971,7 @@
         <v>1536</v>
       </c>
       <c r="F85" s="4">
-        <f>D85/E85</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -2999,14 +2995,14 @@
         <v>1536</v>
       </c>
       <c r="F86" s="4">
-        <f>D86/E86</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>49</v>
       </c>
@@ -3023,14 +3019,14 @@
         <v>360</v>
       </c>
       <c r="F87" s="4">
-        <f>D87/E87</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>49</v>
       </c>
@@ -3047,7 +3043,7 @@
         <v>480</v>
       </c>
       <c r="F88" s="4">
-        <f>D88/E88</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G88" s="2" t="s">
@@ -3071,16 +3067,64 @@
         <v>768</v>
       </c>
       <c r="F89" s="4">
-        <f>D89/E89</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2800</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1752</v>
+      </c>
+      <c r="F90" s="4">
+        <f>D90/E90</f>
+        <v>1.5981735159817352</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2560</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1600</v>
+      </c>
+      <c r="F91" s="4">
+        <f>D91/E91</f>
+        <v>1.6</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E19:F200">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>$D19</formula>
     </cfRule>
   </conditionalFormatting>
